--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -85,10 +85,10 @@
     <t>วันเดือนปีที่สมัคร</t>
   </si>
   <si>
+    <t>นาย</t>
+  </si>
+  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>นาย</t>
   </si>
   <si>
     <t>ทดสอบ</t>
@@ -520,11 +520,11 @@
     </row>
     <row r="4" spans="1:43">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
@@ -611,7 +611,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
@@ -698,7 +698,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -785,7 +785,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
@@ -872,7 +872,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -959,7 +959,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
@@ -2960,7 +2960,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
@@ -3830,7 +3830,7 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
@@ -4613,7 +4613,7 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
@@ -4787,7 +4787,7 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
@@ -4894,8 +4894,8 @@
     <mergeCell ref="AL3:AM3"/>
     <mergeCell ref="AN3:AO3"/>
     <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
@@ -4915,8 +4915,8 @@
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="AN4:AO4"/>
     <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -4936,8 +4936,8 @@
     <mergeCell ref="AL5:AM5"/>
     <mergeCell ref="AN5:AO5"/>
     <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
@@ -4957,8 +4957,8 @@
     <mergeCell ref="AL6:AM6"/>
     <mergeCell ref="AN6:AO6"/>
     <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -4978,8 +4978,8 @@
     <mergeCell ref="AL7:AM7"/>
     <mergeCell ref="AN7:AO7"/>
     <mergeCell ref="AP7:AQ7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
@@ -4999,8 +4999,8 @@
     <mergeCell ref="AL8:AM8"/>
     <mergeCell ref="AN8:AO8"/>
     <mergeCell ref="AP8:AQ8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
@@ -5020,8 +5020,8 @@
     <mergeCell ref="AL9:AM9"/>
     <mergeCell ref="AN9:AO9"/>
     <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
@@ -5041,8 +5041,8 @@
     <mergeCell ref="AL10:AM10"/>
     <mergeCell ref="AN10:AO10"/>
     <mergeCell ref="AP10:AQ10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
@@ -5062,8 +5062,8 @@
     <mergeCell ref="AL11:AM11"/>
     <mergeCell ref="AN11:AO11"/>
     <mergeCell ref="AP11:AQ11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
@@ -5083,8 +5083,8 @@
     <mergeCell ref="AL12:AM12"/>
     <mergeCell ref="AN12:AO12"/>
     <mergeCell ref="AP12:AQ12"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
@@ -5104,8 +5104,8 @@
     <mergeCell ref="AL13:AM13"/>
     <mergeCell ref="AN13:AO13"/>
     <mergeCell ref="AP13:AQ13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:J14"/>
@@ -5125,8 +5125,8 @@
     <mergeCell ref="AL14:AM14"/>
     <mergeCell ref="AN14:AO14"/>
     <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:J15"/>
@@ -5146,8 +5146,8 @@
     <mergeCell ref="AL15:AM15"/>
     <mergeCell ref="AN15:AO15"/>
     <mergeCell ref="AP15:AQ15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
@@ -5167,8 +5167,8 @@
     <mergeCell ref="AL16:AM16"/>
     <mergeCell ref="AN16:AO16"/>
     <mergeCell ref="AP16:AQ16"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:J17"/>
@@ -5188,8 +5188,8 @@
     <mergeCell ref="AL17:AM17"/>
     <mergeCell ref="AN17:AO17"/>
     <mergeCell ref="AP17:AQ17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
@@ -5209,8 +5209,8 @@
     <mergeCell ref="AL18:AM18"/>
     <mergeCell ref="AN18:AO18"/>
     <mergeCell ref="AP18:AQ18"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:J19"/>
@@ -5230,8 +5230,8 @@
     <mergeCell ref="AL19:AM19"/>
     <mergeCell ref="AN19:AO19"/>
     <mergeCell ref="AP19:AQ19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I20:J20"/>
@@ -5251,8 +5251,8 @@
     <mergeCell ref="AL20:AM20"/>
     <mergeCell ref="AN20:AO20"/>
     <mergeCell ref="AP20:AQ20"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:J21"/>
@@ -5272,8 +5272,8 @@
     <mergeCell ref="AL21:AM21"/>
     <mergeCell ref="AN21:AO21"/>
     <mergeCell ref="AP21:AQ21"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="I22:J22"/>
@@ -5293,8 +5293,8 @@
     <mergeCell ref="AL22:AM22"/>
     <mergeCell ref="AN22:AO22"/>
     <mergeCell ref="AP22:AQ22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="I23:J23"/>
@@ -5314,8 +5314,8 @@
     <mergeCell ref="AL23:AM23"/>
     <mergeCell ref="AN23:AO23"/>
     <mergeCell ref="AP23:AQ23"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="I24:J24"/>
@@ -5335,8 +5335,8 @@
     <mergeCell ref="AL24:AM24"/>
     <mergeCell ref="AN24:AO24"/>
     <mergeCell ref="AP24:AQ24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="I25:J25"/>
@@ -5356,8 +5356,8 @@
     <mergeCell ref="AL25:AM25"/>
     <mergeCell ref="AN25:AO25"/>
     <mergeCell ref="AP25:AQ25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="I26:J26"/>
@@ -5377,8 +5377,8 @@
     <mergeCell ref="AL26:AM26"/>
     <mergeCell ref="AN26:AO26"/>
     <mergeCell ref="AP26:AQ26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="I27:J27"/>
@@ -5398,8 +5398,8 @@
     <mergeCell ref="AL27:AM27"/>
     <mergeCell ref="AN27:AO27"/>
     <mergeCell ref="AP27:AQ27"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:J28"/>
@@ -5419,8 +5419,8 @@
     <mergeCell ref="AL28:AM28"/>
     <mergeCell ref="AN28:AO28"/>
     <mergeCell ref="AP28:AQ28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:J29"/>
@@ -5440,8 +5440,8 @@
     <mergeCell ref="AL29:AM29"/>
     <mergeCell ref="AN29:AO29"/>
     <mergeCell ref="AP29:AQ29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
@@ -5461,8 +5461,8 @@
     <mergeCell ref="AL30:AM30"/>
     <mergeCell ref="AN30:AO30"/>
     <mergeCell ref="AP30:AQ30"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="I31:J31"/>
@@ -5482,8 +5482,8 @@
     <mergeCell ref="AL31:AM31"/>
     <mergeCell ref="AN31:AO31"/>
     <mergeCell ref="AP31:AQ31"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="I32:J32"/>
@@ -5503,8 +5503,8 @@
     <mergeCell ref="AL32:AM32"/>
     <mergeCell ref="AN32:AO32"/>
     <mergeCell ref="AP32:AQ32"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="I33:J33"/>
@@ -5524,8 +5524,8 @@
     <mergeCell ref="AL33:AM33"/>
     <mergeCell ref="AN33:AO33"/>
     <mergeCell ref="AP33:AQ33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="I34:J34"/>
@@ -5545,8 +5545,8 @@
     <mergeCell ref="AL34:AM34"/>
     <mergeCell ref="AN34:AO34"/>
     <mergeCell ref="AP34:AQ34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="I35:J35"/>
@@ -5566,8 +5566,8 @@
     <mergeCell ref="AL35:AM35"/>
     <mergeCell ref="AN35:AO35"/>
     <mergeCell ref="AP35:AQ35"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="I36:J36"/>
@@ -5587,8 +5587,8 @@
     <mergeCell ref="AL36:AM36"/>
     <mergeCell ref="AN36:AO36"/>
     <mergeCell ref="AP36:AQ36"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="I37:J37"/>
@@ -5608,8 +5608,8 @@
     <mergeCell ref="AL37:AM37"/>
     <mergeCell ref="AN37:AO37"/>
     <mergeCell ref="AP37:AQ37"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="I38:J38"/>
@@ -5629,8 +5629,8 @@
     <mergeCell ref="AL38:AM38"/>
     <mergeCell ref="AN38:AO38"/>
     <mergeCell ref="AP38:AQ38"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="I39:J39"/>
@@ -5650,8 +5650,8 @@
     <mergeCell ref="AL39:AM39"/>
     <mergeCell ref="AN39:AO39"/>
     <mergeCell ref="AP39:AQ39"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="I40:J40"/>
@@ -5671,8 +5671,8 @@
     <mergeCell ref="AL40:AM40"/>
     <mergeCell ref="AN40:AO40"/>
     <mergeCell ref="AP40:AQ40"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="I41:J41"/>
@@ -5692,8 +5692,8 @@
     <mergeCell ref="AL41:AM41"/>
     <mergeCell ref="AN41:AO41"/>
     <mergeCell ref="AP41:AQ41"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="I42:J42"/>
@@ -5713,8 +5713,8 @@
     <mergeCell ref="AL42:AM42"/>
     <mergeCell ref="AN42:AO42"/>
     <mergeCell ref="AP42:AQ42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="I43:J43"/>
@@ -5734,8 +5734,8 @@
     <mergeCell ref="AL43:AM43"/>
     <mergeCell ref="AN43:AO43"/>
     <mergeCell ref="AP43:AQ43"/>
+    <mergeCell ref="C44:D44"/>
     <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="I44:J44"/>
@@ -5755,8 +5755,8 @@
     <mergeCell ref="AL44:AM44"/>
     <mergeCell ref="AN44:AO44"/>
     <mergeCell ref="AP44:AQ44"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="I45:J45"/>
@@ -5776,8 +5776,8 @@
     <mergeCell ref="AL45:AM45"/>
     <mergeCell ref="AN45:AO45"/>
     <mergeCell ref="AP45:AQ45"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="I46:J46"/>
@@ -5797,8 +5797,8 @@
     <mergeCell ref="AL46:AM46"/>
     <mergeCell ref="AN46:AO46"/>
     <mergeCell ref="AP46:AQ46"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="G47:H47"/>
     <mergeCell ref="I47:J47"/>
@@ -5818,8 +5818,8 @@
     <mergeCell ref="AL47:AM47"/>
     <mergeCell ref="AN47:AO47"/>
     <mergeCell ref="AP47:AQ47"/>
+    <mergeCell ref="C48:D48"/>
     <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="G48:H48"/>
     <mergeCell ref="I48:J48"/>
@@ -5839,8 +5839,8 @@
     <mergeCell ref="AL48:AM48"/>
     <mergeCell ref="AN48:AO48"/>
     <mergeCell ref="AP48:AQ48"/>
+    <mergeCell ref="C49:D49"/>
     <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="G49:H49"/>
     <mergeCell ref="I49:J49"/>
@@ -5860,8 +5860,8 @@
     <mergeCell ref="AL49:AM49"/>
     <mergeCell ref="AN49:AO49"/>
     <mergeCell ref="AP49:AQ49"/>
+    <mergeCell ref="C50:D50"/>
     <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="G50:H50"/>
     <mergeCell ref="I50:J50"/>
@@ -5881,8 +5881,8 @@
     <mergeCell ref="AL50:AM50"/>
     <mergeCell ref="AN50:AO50"/>
     <mergeCell ref="AP50:AQ50"/>
+    <mergeCell ref="C51:D51"/>
     <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="I51:J51"/>
@@ -5902,8 +5902,8 @@
     <mergeCell ref="AL51:AM51"/>
     <mergeCell ref="AN51:AO51"/>
     <mergeCell ref="AP51:AQ51"/>
+    <mergeCell ref="C52:D52"/>
     <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="G52:H52"/>
     <mergeCell ref="I52:J52"/>
@@ -5923,8 +5923,8 @@
     <mergeCell ref="AL52:AM52"/>
     <mergeCell ref="AN52:AO52"/>
     <mergeCell ref="AP52:AQ52"/>
+    <mergeCell ref="C53:D53"/>
     <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="I53:J53"/>
